--- a/biology/Botanique/Violette_odorante/Violette_odorante.xlsx
+++ b/biology/Botanique/Violette_odorante/Violette_odorante.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola odorata
 La Violette odorante (Viola odorata) est une espèce de petites plantes vivaces de la famille des Violaceae.
@@ -514,7 +526,9 @@
           <t>Confusion possible</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ne pas la confondre avec la Violette des bois qui n'a pas d'odeur et des feuilles glabres.
 </t>
@@ -545,7 +559,9 @@
           <t>Autres appellations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Violette de mars, Violette des haies, Fleur de mars, Viole de Carême, Jacée de printemps.
 </t>
@@ -576,9 +592,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C'est une des rares espèces de violettes à être parfumée. Son parfum envoûtant et suave semble éphémère car il anesthésie légèrement les récepteurs olfactifs et il faut attendre quelques minutes avant de pouvoir la sentir à nouveau[1]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C'est une des rares espèces de violettes à être parfumée. Son parfum envoûtant et suave semble éphémère car il anesthésie légèrement les récepteurs olfactifs et il faut attendre quelques minutes avant de pouvoir la sentir à nouveau. 
 Appareil végétatif
 Plante acaule de 5 à 15 cm formant des colonies plus ou moins étendues.
 Souche épaisse à stolons allongés, radicants, ordinairement stériles
@@ -599,7 +617,7 @@
 Espèce bio-indicatrice de sol riche en bases
 Habitat et répartition
 Habitat type : assez commune dans les bois clairs, lisières, haies, pelouses, prairies et bords des chemins
-Aire de répartition : européenne à tendance méridionale[2]</t>
+Aire de répartition : européenne à tendance méridionale</t>
         </is>
       </c>
     </row>
@@ -627,9 +645,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Moyen Âge, Viola odorata, était considérée comme une plante magique aphrodisiaque. Ses fleurs mêlées à celles de Lavandula angustifolia, cousues dans les oreillers, prédisposent à l'amour grâce à leurs effluves sensuels[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Moyen Âge, Viola odorata, était considérée comme une plante magique aphrodisiaque. Ses fleurs mêlées à celles de Lavandula angustifolia, cousues dans les oreillers, prédisposent à l'amour grâce à leurs effluves sensuels.
 </t>
         </is>
       </c>
@@ -660,47 +680,123 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Propriétés industrielles
-La Violette odorante est utilisée en parfumerie. On ne distille toutefois pas les fleurs mais les feuilles. Le produit obtenu possède une note verte, poudrée, légèrement cireuse. La note 'fleur de violette', typique et plus douce est obtenue grâce à des molécules de synthèse.
-Utilisation alimentaire
-salades ou les plus vieilles, plus fibreuses, être cuites dans des soupes qu'elles épaississent du fait de leur mucilage[4].
-Les fleurs servent de décor aux pâtisseries, fraiches ou confites au sucre. Elles sont émollientes, expectorantes, diaphorétiques et laxatives[4].
-Propriétés médicinales
-L'infusion de fleurs de violette odorante est sudorifique[réf. nécessaire]
+          <t>Propriétés industrielles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Violette odorante est utilisée en parfumerie. On ne distille toutefois pas les fleurs mais les feuilles. Le produit obtenu possède une note verte, poudrée, légèrement cireuse. La note 'fleur de violette', typique et plus douce est obtenue grâce à des molécules de synthèse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Violette_odorante</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Violette_odorante</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Utilisation alimentaire</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>salades ou les plus vieilles, plus fibreuses, être cuites dans des soupes qu'elles épaississent du fait de leur mucilage.
+Les fleurs servent de décor aux pâtisseries, fraiches ou confites au sucre. Elles sont émollientes, expectorantes, diaphorétiques et laxatives.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Violette_odorante</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Violette_odorante</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Propriétés médicinales</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'infusion de fleurs de violette odorante est sudorifique[réf. nécessaire]
 Toutes les violettes ont des propriétés émollientes et expectorantes, et ont été employées dans le traitement de maladies respiratoires telles que la bronchite et la coqueluche, encore de nos jours sous forme de pastilles à sucer[réf. nécessaire].
 La violette odorante a une longue histoire d'utilisation en herboristerie. On lui a attribué, sans aucune preuve, des vertus contre l'épilepsie, l'asthme, les maladies de peau et l'eczéma. Ce serait également un laxatif doux, un dépuratif, un diurétique, un émollient[réf. nécessaire]...
 Des bains à base de décoction de feuilles donneraient des résultats pour les maladies rhumatismales[réf. nécessaire].
-La racine est émétique du fait de la présence de violine[4].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+La racine est émétique du fait de la présence de violine.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Violette_odorante</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Violette_odorante</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Plante hôte</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Violette odorante est comme de nombreuses Viola plante hôte de la chenille du Petit nacré (Issoria lathonia)[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Violette odorante est comme de nombreuses Viola plante hôte de la chenille du Petit nacré (Issoria lathonia).
 </t>
         </is>
       </c>
